--- a/biology/Botanique/Medicago_scutellata/Medicago_scutellata.xlsx
+++ b/biology/Botanique/Medicago_scutellata/Medicago_scutellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Medicago scutellata ou « luzerne à écussons » est une espèce végétale annuelle du genre Medicago. On la trouve dans tout le bassin méditerranéen. Elle établie une relation symbiotique avec la bactérie Sinorhizobium meliloti, qui est capable de fixation de l’azote. Elle a aussi pour noms communs anglophones snail medick et shield medick[2].
+Medicago scutellata ou « luzerne à écussons » est une espèce végétale annuelle du genre Medicago. On la trouve dans tout le bassin méditerranéen. Elle établie une relation symbiotique avec la bactérie Sinorhizobium meliloti, qui est capable de fixation de l’azote. Elle a aussi pour noms communs anglophones snail medick et shield medick.
 Synonymes :
 Cochleata scutellata (L.) Medik. in Philos. Bot. 1: 210 (1789)
 Medica scutellata (L.) Bubani in Fl. Pyren. 2: 574 (1899)
@@ -517,9 +529,11 @@
           <t>Dénomination et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le limaçon (Medicago scutellata), appelé également luzerne à écussons ou luzerne à écuelles est à évoquer surtout pour la drôle de forme de ses fruits car aujourd'hui, elle est quasiment menacée, compte tenu de sa très forte diminution dans les friches et les champs en jachère du pourtour méditerranéen où elle peut se rencontrer jusqu'à 800 à 1100 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le limaçon (Medicago scutellata), appelé également luzerne à écussons ou luzerne à écuelles est à évoquer surtout pour la drôle de forme de ses fruits car aujourd'hui, elle est quasiment menacée, compte tenu de sa très forte diminution dans les friches et les champs en jachère du pourtour méditerranéen où elle peut se rencontrer jusqu'à 800 à 1100 m d'altitude.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son port étalé plutôt couché est proche des rampantes. Ses feuilles aux folioles ovales à obovales sont finement dentées surtout dans la partie haute. Elle fleurit d'avril à juillet, avec des fleurs jaunes faisant 1cm maximum de diamètre. La gousse cupuliforme mesure jusqu'à 1,5cm de diamètre et forme 5 à 6 spires concaves aplaties les unes sur les autres, plus petites à la base et au sommet, plus larges au milieu, rappelant une coquille d'escargot. Cette gousse duveteuse sans épines de couleur verte vire au jaune à maturité. Elle contient des graines réniformes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son port étalé plutôt couché est proche des rampantes. Ses feuilles aux folioles ovales à obovales sont finement dentées surtout dans la partie haute. Elle fleurit d'avril à juillet, avec des fleurs jaunes faisant 1cm maximum de diamètre. La gousse cupuliforme mesure jusqu'à 1,5cm de diamètre et forme 5 à 6 spires concaves aplaties les unes sur les autres, plus petites à la base et au sommet, plus larges au milieu, rappelant une coquille d'escargot. Cette gousse duveteuse sans épines de couleur verte vire au jaune à maturité. Elle contient des graines réniformes.
 </t>
         </is>
       </c>
